--- a/Documents/Sportify India UML Diagram & DB Schema3.xlsx
+++ b/Documents/Sportify India UML Diagram & DB Schema3.xlsx
@@ -439,19 +439,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1021977</xdr:colOff>
+      <xdr:colOff>986117</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>75344</xdr:rowOff>
+      <xdr:rowOff>161365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1021976</xdr:colOff>
+      <xdr:colOff>690282</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>158564</xdr:rowOff>
+      <xdr:rowOff>15128</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -470,8 +470,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3558989" y="6350638"/>
-          <a:ext cx="10551458" cy="7039832"/>
+          <a:off x="3523129" y="6436659"/>
+          <a:ext cx="10255624" cy="6810375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -773,7 +773,7 @@
   <dimension ref="C6:V135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Documents/Sportify India UML Diagram & DB Schema3.xlsx
+++ b/Documents/Sportify India UML Diagram & DB Schema3.xlsx
@@ -85,9 +85,6 @@
     <t>customer_mobno</t>
   </si>
   <si>
-    <t>customer_uname</t>
-  </si>
-  <si>
     <t>customer_address</t>
   </si>
   <si>
@@ -233,6 +230,9 @@
   </si>
   <si>
     <t>order_total_cost</t>
+  </si>
+  <si>
+    <t>customer_user_name</t>
   </si>
 </sst>
 </file>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:V135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -843,7 +843,7 @@
     </row>
     <row r="10" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C10" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>12</v>
@@ -852,13 +852,13 @@
         <v>17</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K10" s="17" t="s">
         <v>14</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="3:22" x14ac:dyDescent="0.3">
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>1</v>
@@ -886,7 +886,7 @@
         <v>5</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="3:22" x14ac:dyDescent="0.3">
@@ -894,19 +894,19 @@
         <v>20</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="3:22" x14ac:dyDescent="0.3">
@@ -914,19 +914,19 @@
         <v>21</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>7</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="3:22" x14ac:dyDescent="0.3">
@@ -934,131 +934,131 @@
         <v>22</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>8</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C17" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K17" s="11" t="s">
         <v>9</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>2</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.3">
       <c r="E20" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.3">
       <c r="I21" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.3">
       <c r="I22" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="3:16" x14ac:dyDescent="0.3">
       <c r="I23" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>18</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="3:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.35">
@@ -1077,7 +1077,7 @@
         <v>13</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H27" s="17" t="s">
         <v>15</v>
@@ -1097,18 +1097,18 @@
         <v>10</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H29" s="15" t="s">
         <v>11</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="3:16" ht="14.55" x14ac:dyDescent="0.35">
       <c r="D30" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>10</v>
@@ -1122,13 +1122,13 @@
     </row>
     <row r="31" spans="3:16" ht="14.55" x14ac:dyDescent="0.35">
       <c r="D31" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J31" s="11" t="s">
         <v>9</v>

--- a/Documents/Sportify India UML Diagram & DB Schema3.xlsx
+++ b/Documents/Sportify India UML Diagram & DB Schema3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
   <si>
     <t>product_Id</t>
   </si>
@@ -232,7 +232,10 @@
     <t>order_total_cost</t>
   </si>
   <si>
-    <t>customer_user_name</t>
+    <t>customer_password</t>
+  </si>
+  <si>
+    <t>customer_uname</t>
   </si>
 </sst>
 </file>
@@ -526,7 +529,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -561,7 +564,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -773,7 +776,7 @@
   <dimension ref="C6:V135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,7 +951,7 @@
     </row>
     <row r="16" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>29</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C17" s="4" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>30</v>
@@ -982,7 +985,7 @@
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C18" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>2</v>
@@ -999,7 +1002,7 @@
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C19" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>10</v>
@@ -1015,6 +1018,9 @@
       </c>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C20" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="E20" s="14" t="s">
         <v>68</v>
       </c>
@@ -1061,17 +1067,16 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="3:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="3:16" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.3">
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="3:16" ht="14.55" x14ac:dyDescent="0.35"/>
     <row r="27" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D27" s="17" t="s">
         <v>13</v>
@@ -1092,7 +1097,7 @@
       <c r="H28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="3:16" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D29" s="7" t="s">
         <v>10</v>
       </c>
@@ -1106,7 +1111,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="3:16" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D30" s="7" t="s">
         <v>46</v>
       </c>
@@ -1120,7 +1125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="3:16" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D31" s="7" t="s">
         <v>47</v>
       </c>
@@ -1136,8 +1141,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="3:16" ht="14.55" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="4:20" ht="14.55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:20" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>

--- a/Documents/Sportify India UML Diagram & DB Schema3.xlsx
+++ b/Documents/Sportify India UML Diagram & DB Schema3.xlsx
@@ -773,7 +773,7 @@
   <dimension ref="C6:V135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Documents/Sportify India UML Diagram & DB Schema3.xlsx
+++ b/Documents/Sportify India UML Diagram & DB Schema3.xlsx
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:V135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1061,17 +1061,16 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="3:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="3:16" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.3">
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="3:16" ht="14.55" x14ac:dyDescent="0.35"/>
     <row r="27" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D27" s="17" t="s">
         <v>13</v>
@@ -1092,7 +1091,7 @@
       <c r="H28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="3:16" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D29" s="7" t="s">
         <v>10</v>
       </c>
@@ -1106,7 +1105,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="3:16" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D30" s="7" t="s">
         <v>46</v>
       </c>
@@ -1120,7 +1119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="3:16" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D31" s="7" t="s">
         <v>47</v>
       </c>
@@ -1136,8 +1135,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="3:16" ht="14.55" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="4:20" ht="14.55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:20" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
